--- a/Happy Kidz Status.xlsx
+++ b/Happy Kidz Status.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Story</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -73,6 +70,42 @@
   </si>
   <si>
     <t>Lillu</t>
+  </si>
+  <si>
+    <t>About US</t>
+  </si>
+  <si>
+    <t>Programmes</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>ContactUS</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Enquiry</t>
+  </si>
+  <si>
+    <t>Day Care</t>
+  </si>
+  <si>
+    <t>Nursery</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Total hours</t>
   </si>
 </sst>
 </file>
@@ -109,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,11 +234,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +273,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,643 +579,938 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3">
+        <f>SUM(D2:F2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
         <v>42864</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>42864</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G39" si="0">SUM(D3:F3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
         <v>42865</v>
       </c>
-      <c r="F3" s="4">
+      <c r="I3" s="4">
         <v>42865</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
         <v>42865</v>
       </c>
-      <c r="F4" s="4">
+      <c r="I4" s="4">
         <v>42865</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>42865</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="4">
+        <v>42865</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A27"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Happy Kidz Status.xlsx
+++ b/Happy Kidz Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Story</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Total hours</t>
+  </si>
+  <si>
+    <t>school details</t>
   </si>
 </sst>
 </file>
@@ -261,6 +264,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,11 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +585,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,12 +628,12 @@
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -657,10 +660,10 @@
       <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -683,10 +686,10 @@
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -709,10 +712,10 @@
       <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -723,10 +726,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -745,10 +748,10 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -761,10 +764,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -775,10 +778,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -789,10 +792,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -803,14 +806,16 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
@@ -819,10 +824,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -832,7 +837,7 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>8</v>
       </c>
       <c r="F12" s="5">
@@ -847,10 +852,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
@@ -863,10 +868,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -877,10 +882,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -891,10 +896,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -905,10 +910,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
@@ -921,10 +926,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -937,10 +942,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
@@ -953,10 +958,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
@@ -969,10 +974,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="G21" s="3">
@@ -982,10 +987,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
@@ -997,10 +1002,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="G23" s="3">
@@ -1010,10 +1015,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="14"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="G24" s="3">
@@ -1023,10 +1028,10 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="13"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1037,10 +1042,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="13"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1051,10 +1056,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1065,10 +1070,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1079,10 +1084,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1093,10 +1098,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1107,10 +1112,10 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="13"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1121,10 +1126,10 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1135,10 +1140,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1149,10 +1154,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1163,10 +1168,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="13"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1177,7 +1182,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="13"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1191,7 +1196,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="13"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -1205,7 +1210,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="13"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1219,7 +1224,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="13"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -1233,7 +1238,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1244,7 +1249,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="13"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -1255,7 +1260,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="13"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1266,7 +1271,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="13"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1277,7 +1282,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="13"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1288,7 +1293,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1299,7 +1304,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="13"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -1310,7 +1315,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="13"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1321,7 +1326,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="13"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1332,7 +1337,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="13"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1343,7 +1348,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="13"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -1354,7 +1359,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="13"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -1365,7 +1370,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="13"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
@@ -1375,7 +1380,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="13"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
@@ -1385,7 +1390,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="13"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
@@ -1395,7 +1400,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="13"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
@@ -1405,7 +1410,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="13"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
@@ -1415,7 +1420,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="13"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -1425,7 +1430,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="13"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
@@ -1435,7 +1440,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="13"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
@@ -1445,7 +1450,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="13"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
@@ -1455,7 +1460,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="13"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
@@ -1465,7 +1470,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="13"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
@@ -1475,7 +1480,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="13"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
@@ -1485,7 +1490,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="13"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
@@ -1495,7 +1500,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="13"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
@@ -1505,7 +1510,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="13"/>
+      <c r="K65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
